--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>62.52283866666667</v>
+        <v>41.52772766666666</v>
       </c>
       <c r="H2">
-        <v>187.568516</v>
+        <v>124.583183</v>
       </c>
       <c r="I2">
-        <v>0.723891918581047</v>
+        <v>0.750469325006714</v>
       </c>
       <c r="J2">
-        <v>0.723891918581047</v>
+        <v>0.7504693250067139</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04854733333333333</v>
+        <v>0.2547863333333333</v>
       </c>
       <c r="N2">
-        <v>0.145642</v>
+        <v>0.764359</v>
       </c>
       <c r="O2">
-        <v>0.001927133137983325</v>
+        <v>0.006187744272263177</v>
       </c>
       <c r="P2">
-        <v>0.001927133137983326</v>
+        <v>0.006187744272263177</v>
       </c>
       <c r="Q2">
-        <v>3.035317089696889</v>
+        <v>10.58069746385522</v>
       </c>
       <c r="R2">
-        <v>27.317853807272</v>
+        <v>95.22627717469699</v>
       </c>
       <c r="S2">
-        <v>0.001395036104615863</v>
+        <v>0.004643712267319507</v>
       </c>
       <c r="T2">
-        <v>0.001395036104615863</v>
+        <v>0.004643712267319506</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>62.52283866666667</v>
+        <v>41.52772766666666</v>
       </c>
       <c r="H3">
-        <v>187.568516</v>
+        <v>124.583183</v>
       </c>
       <c r="I3">
-        <v>0.723891918581047</v>
+        <v>0.750469325006714</v>
       </c>
       <c r="J3">
-        <v>0.723891918581047</v>
+        <v>0.7504693250067139</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>10.38698433333333</v>
+        <v>0.04854733333333333</v>
       </c>
       <c r="N3">
-        <v>31.160953</v>
+        <v>0.145642</v>
       </c>
       <c r="O3">
-        <v>0.4123213436882281</v>
+        <v>0.001179021181540289</v>
       </c>
       <c r="P3">
-        <v>0.4123213436882282</v>
+        <v>0.001179021181540289</v>
       </c>
       <c r="Q3">
-        <v>649.4237457061943</v>
+        <v>2.016060437609555</v>
       </c>
       <c r="R3">
-        <v>5844.813711355748</v>
+        <v>18.144543938486</v>
       </c>
       <c r="S3">
-        <v>0.2984760885543867</v>
+        <v>0.0008848192302791588</v>
       </c>
       <c r="T3">
-        <v>0.2984760885543868</v>
+        <v>0.0008848192302791588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>62.52283866666667</v>
+        <v>41.52772766666666</v>
       </c>
       <c r="H4">
-        <v>187.568516</v>
+        <v>124.583183</v>
       </c>
       <c r="I4">
-        <v>0.723891918581047</v>
+        <v>0.750469325006714</v>
       </c>
       <c r="J4">
-        <v>0.723891918581047</v>
+        <v>0.7504693250067139</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.502148666666667</v>
+        <v>12.57852566666667</v>
       </c>
       <c r="N4">
-        <v>19.506446</v>
+        <v>37.735577</v>
       </c>
       <c r="O4">
-        <v>0.2581090515845861</v>
+        <v>0.3054822412535158</v>
       </c>
       <c r="P4">
-        <v>0.2581090515845861</v>
+        <v>0.3054822412535158</v>
       </c>
       <c r="Q4">
-        <v>406.5327920726818</v>
+        <v>522.3575883335101</v>
       </c>
       <c r="R4">
-        <v>3658.795128654136</v>
+        <v>4701.21829500159</v>
       </c>
       <c r="S4">
-        <v>0.1868430565547004</v>
+        <v>0.2292550513950641</v>
       </c>
       <c r="T4">
-        <v>0.1868430565547005</v>
+        <v>0.2292550513950641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>62.52283866666667</v>
+        <v>41.52772766666666</v>
       </c>
       <c r="H5">
-        <v>187.568516</v>
+        <v>124.583183</v>
       </c>
       <c r="I5">
-        <v>0.723891918581047</v>
+        <v>0.750469325006714</v>
       </c>
       <c r="J5">
-        <v>0.723891918581047</v>
+        <v>0.7504693250067139</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.253798333333334</v>
+        <v>7.359328666666666</v>
       </c>
       <c r="N5">
-        <v>24.761395</v>
+        <v>22.077986</v>
       </c>
       <c r="O5">
-        <v>0.3276424715892025</v>
+        <v>0.1787287536545087</v>
       </c>
       <c r="P5">
-        <v>0.3276424715892025</v>
+        <v>0.1787287536545087</v>
       </c>
       <c r="Q5">
-        <v>516.0509015822023</v>
+        <v>305.6161966788264</v>
       </c>
       <c r="R5">
-        <v>4644.45811423982</v>
+        <v>2750.545770109438</v>
       </c>
       <c r="S5">
-        <v>0.2371777373673439</v>
+        <v>0.1341304471143904</v>
       </c>
       <c r="T5">
-        <v>0.237177737367344</v>
+        <v>0.1341304471143904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.158875666666667</v>
+        <v>41.52772766666666</v>
       </c>
       <c r="H6">
-        <v>6.476627000000001</v>
+        <v>124.583183</v>
       </c>
       <c r="I6">
-        <v>0.02499554853312275</v>
+        <v>0.750469325006714</v>
       </c>
       <c r="J6">
-        <v>0.02499554853312275</v>
+        <v>0.7504693250067139</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.04854733333333333</v>
+        <v>20.93477566666667</v>
       </c>
       <c r="N6">
-        <v>0.145642</v>
+        <v>62.804327</v>
       </c>
       <c r="O6">
-        <v>0.001927133137983325</v>
+        <v>0.508422239638172</v>
       </c>
       <c r="P6">
-        <v>0.001927133137983326</v>
+        <v>0.5084222396381721</v>
       </c>
       <c r="Q6">
-        <v>0.1048076566148889</v>
+        <v>869.3736626480934</v>
       </c>
       <c r="R6">
-        <v>0.943268909534</v>
+        <v>7824.36296383284</v>
       </c>
       <c r="S6">
-        <v>4.816974988025134E-05</v>
+        <v>0.3815552949996608</v>
       </c>
       <c r="T6">
-        <v>4.816974988025136E-05</v>
+        <v>0.3815552949996608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>6.476627000000001</v>
       </c>
       <c r="I7">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="J7">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>10.38698433333333</v>
+        <v>0.2547863333333333</v>
       </c>
       <c r="N7">
-        <v>31.160953</v>
+        <v>0.764359</v>
       </c>
       <c r="O7">
-        <v>0.4123213436882281</v>
+        <v>0.006187744272263177</v>
       </c>
       <c r="P7">
-        <v>0.4123213436882282</v>
+        <v>0.006187744272263177</v>
       </c>
       <c r="Q7">
-        <v>22.42420772728122</v>
+        <v>0.5500520152325556</v>
       </c>
       <c r="R7">
-        <v>201.817869545531</v>
+        <v>4.950468137093001</v>
       </c>
       <c r="S7">
-        <v>0.01030619815740149</v>
+        <v>0.0002414097274328971</v>
       </c>
       <c r="T7">
-        <v>0.01030619815740149</v>
+        <v>0.0002414097274328971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>6.476627000000001</v>
       </c>
       <c r="I8">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="J8">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>6.502148666666667</v>
+        <v>0.04854733333333333</v>
       </c>
       <c r="N8">
-        <v>19.506446</v>
+        <v>0.145642</v>
       </c>
       <c r="O8">
-        <v>0.2581090515845861</v>
+        <v>0.001179021181540289</v>
       </c>
       <c r="P8">
-        <v>0.2581090515845861</v>
+        <v>0.001179021181540289</v>
       </c>
       <c r="Q8">
-        <v>14.03733053751578</v>
+        <v>0.1048076566148889</v>
       </c>
       <c r="R8">
-        <v>126.335974837642</v>
+        <v>0.943268909534</v>
       </c>
       <c r="S8">
-        <v>0.006451577325720805</v>
+        <v>4.599853671217582E-05</v>
       </c>
       <c r="T8">
-        <v>0.006451577325720806</v>
+        <v>4.599853671217582E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>6.476627000000001</v>
       </c>
       <c r="I9">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="J9">
-        <v>0.02499554853312275</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.253798333333334</v>
+        <v>12.57852566666667</v>
       </c>
       <c r="N9">
-        <v>24.761395</v>
+        <v>37.735577</v>
       </c>
       <c r="O9">
-        <v>0.3276424715892025</v>
+        <v>0.3054822412535158</v>
       </c>
       <c r="P9">
-        <v>0.3276424715892025</v>
+        <v>0.3054822412535158</v>
       </c>
       <c r="Q9">
-        <v>17.81892437940722</v>
+        <v>27.15547298430878</v>
       </c>
       <c r="R9">
-        <v>160.370319414665</v>
+        <v>244.399256858779</v>
       </c>
       <c r="S9">
-        <v>0.008189603300120201</v>
+        <v>0.01191813710323696</v>
       </c>
       <c r="T9">
-        <v>0.008189603300120203</v>
+        <v>0.01191813710323696</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08558466666666666</v>
+        <v>2.158875666666667</v>
       </c>
       <c r="H10">
-        <v>0.256754</v>
+        <v>6.476627000000001</v>
       </c>
       <c r="I10">
-        <v>0.0009909026825341953</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="J10">
-        <v>0.0009909026825341953</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.04854733333333333</v>
+        <v>7.359328666666666</v>
       </c>
       <c r="N10">
-        <v>0.145642</v>
+        <v>22.077986</v>
       </c>
       <c r="O10">
-        <v>0.001927133137983325</v>
+        <v>0.1787287536545087</v>
       </c>
       <c r="P10">
-        <v>0.001927133137983326</v>
+        <v>0.1787287536545087</v>
       </c>
       <c r="Q10">
-        <v>0.004154907340888889</v>
+        <v>15.88787558146911</v>
       </c>
       <c r="R10">
-        <v>0.03739416606799999</v>
+        <v>142.990880233222</v>
       </c>
       <c r="S10">
-        <v>1.909601396028218E-06</v>
+        <v>0.006972954570466649</v>
       </c>
       <c r="T10">
-        <v>1.909601396028219E-06</v>
+        <v>0.00697295457046665</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,25 +1092,25 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08558466666666666</v>
+        <v>2.158875666666667</v>
       </c>
       <c r="H11">
-        <v>0.256754</v>
+        <v>6.476627000000001</v>
       </c>
       <c r="I11">
-        <v>0.0009909026825341953</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="J11">
-        <v>0.0009909026825341953</v>
+        <v>0.03901417330949282</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.38698433333333</v>
+        <v>20.93477566666667</v>
       </c>
       <c r="N11">
-        <v>31.160953</v>
+        <v>62.804327</v>
       </c>
       <c r="O11">
-        <v>0.4123213436882281</v>
+        <v>0.508422239638172</v>
       </c>
       <c r="P11">
-        <v>0.4123213436882282</v>
+        <v>0.5084222396381721</v>
       </c>
       <c r="Q11">
-        <v>0.8889665918402222</v>
+        <v>45.19557777389212</v>
       </c>
       <c r="R11">
-        <v>8.000699326562</v>
+        <v>406.760199965029</v>
       </c>
       <c r="S11">
-        <v>0.0004085703255267691</v>
+        <v>0.01983567337164413</v>
       </c>
       <c r="T11">
-        <v>0.0004085703255267692</v>
+        <v>0.01983567337164414</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,40 +1169,40 @@
         <v>0.256754</v>
       </c>
       <c r="I12">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="J12">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>6.502148666666667</v>
+        <v>0.2547863333333333</v>
       </c>
       <c r="N12">
-        <v>19.506446</v>
+        <v>0.764359</v>
       </c>
       <c r="O12">
-        <v>0.2581090515845861</v>
+        <v>0.006187744272263177</v>
       </c>
       <c r="P12">
-        <v>0.2581090515845861</v>
+        <v>0.006187744272263177</v>
       </c>
       <c r="Q12">
-        <v>0.5564842262537777</v>
+        <v>0.02180580340955555</v>
       </c>
       <c r="R12">
-        <v>5.008358036284</v>
+        <v>0.196252230686</v>
       </c>
       <c r="S12">
-        <v>0.0002557609516015233</v>
+        <v>9.570245925434034E-06</v>
       </c>
       <c r="T12">
-        <v>0.0002557609516015234</v>
+        <v>9.570245925434032E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,45 +1231,45 @@
         <v>0.256754</v>
       </c>
       <c r="I13">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="J13">
-        <v>0.0009909026825341953</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>8.253798333333334</v>
+        <v>0.04854733333333333</v>
       </c>
       <c r="N13">
-        <v>24.761395</v>
+        <v>0.145642</v>
       </c>
       <c r="O13">
-        <v>0.3276424715892025</v>
+        <v>0.001179021181540289</v>
       </c>
       <c r="P13">
-        <v>0.3276424715892025</v>
+        <v>0.001179021181540289</v>
       </c>
       <c r="Q13">
-        <v>0.7063985790922221</v>
+        <v>0.004154907340888889</v>
       </c>
       <c r="R13">
-        <v>6.357587211829999</v>
+        <v>0.03739416606799999</v>
       </c>
       <c r="S13">
-        <v>0.0003246618040098746</v>
+        <v>1.823527631743806E-06</v>
       </c>
       <c r="T13">
-        <v>0.0003246618040098746</v>
+        <v>1.823527631743806E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>20.93318133333333</v>
+        <v>0.08558466666666666</v>
       </c>
       <c r="H14">
-        <v>62.799544</v>
+        <v>0.256754</v>
       </c>
       <c r="I14">
-        <v>0.242365207987117</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="J14">
-        <v>0.2423652079871169</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.04854733333333333</v>
+        <v>12.57852566666667</v>
       </c>
       <c r="N14">
-        <v>0.145642</v>
+        <v>37.735577</v>
       </c>
       <c r="O14">
-        <v>0.001927133137983325</v>
+        <v>0.3054822412535158</v>
       </c>
       <c r="P14">
-        <v>0.001927133137983326</v>
+        <v>0.3054822412535158</v>
       </c>
       <c r="Q14">
-        <v>1.016250131916444</v>
+        <v>1.076528926339777</v>
       </c>
       <c r="R14">
-        <v>9.146251187248</v>
+        <v>9.688760337058</v>
       </c>
       <c r="S14">
-        <v>0.000467070023806194</v>
+        <v>0.000472472688917318</v>
       </c>
       <c r="T14">
-        <v>0.000467070023806194</v>
+        <v>0.0004724726889173179</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,25 +1340,25 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>20.93318133333333</v>
+        <v>0.08558466666666666</v>
       </c>
       <c r="H15">
-        <v>62.799544</v>
+        <v>0.256754</v>
       </c>
       <c r="I15">
-        <v>0.242365207987117</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="J15">
-        <v>0.2423652079871169</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.38698433333333</v>
+        <v>7.359328666666666</v>
       </c>
       <c r="N15">
-        <v>31.160953</v>
+        <v>22.077986</v>
       </c>
       <c r="O15">
-        <v>0.4123213436882281</v>
+        <v>0.1787287536545087</v>
       </c>
       <c r="P15">
-        <v>0.4123213436882282</v>
+        <v>0.1787287536545087</v>
       </c>
       <c r="Q15">
-        <v>217.4326265561591</v>
+        <v>0.6298456908271111</v>
       </c>
       <c r="R15">
-        <v>1956.893639005432</v>
+        <v>5.668611217443999</v>
       </c>
       <c r="S15">
-        <v>0.09993234822052495</v>
+        <v>0.0002764299963214793</v>
       </c>
       <c r="T15">
-        <v>0.09993234822052495</v>
+        <v>0.0002764299963214793</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>20.93318133333333</v>
+        <v>0.08558466666666666</v>
       </c>
       <c r="H16">
-        <v>62.799544</v>
+        <v>0.256754</v>
       </c>
       <c r="I16">
-        <v>0.242365207987117</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="J16">
-        <v>0.2423652079871169</v>
+        <v>0.001546645353191641</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.502148666666667</v>
+        <v>20.93477566666667</v>
       </c>
       <c r="N16">
-        <v>19.506446</v>
+        <v>62.804327</v>
       </c>
       <c r="O16">
-        <v>0.2581090515845861</v>
+        <v>0.508422239638172</v>
       </c>
       <c r="P16">
-        <v>0.2581090515845861</v>
+        <v>0.5084222396381721</v>
       </c>
       <c r="Q16">
-        <v>136.1106570956249</v>
+        <v>1.791695797173111</v>
       </c>
       <c r="R16">
-        <v>1224.995913860624</v>
+        <v>16.125262174558</v>
       </c>
       <c r="S16">
-        <v>0.06255665397065571</v>
+        <v>0.0007863488943956657</v>
       </c>
       <c r="T16">
-        <v>0.06255665397065571</v>
+        <v>0.0007863488943956658</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.93318133333333</v>
+        <v>8.835068666666666</v>
       </c>
       <c r="H17">
-        <v>62.799544</v>
+        <v>26.505206</v>
       </c>
       <c r="I17">
-        <v>0.242365207987117</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="J17">
-        <v>0.2423652079871169</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>8.253798333333334</v>
+        <v>0.2547863333333333</v>
       </c>
       <c r="N17">
-        <v>24.761395</v>
+        <v>0.764359</v>
       </c>
       <c r="O17">
-        <v>0.3276424715892025</v>
+        <v>0.006187744272263177</v>
       </c>
       <c r="P17">
-        <v>0.3276424715892025</v>
+        <v>0.006187744272263177</v>
       </c>
       <c r="Q17">
-        <v>172.7782572004311</v>
+        <v>2.251054750328222</v>
       </c>
       <c r="R17">
-        <v>1555.00431480388</v>
+        <v>20.259492752954</v>
       </c>
       <c r="S17">
-        <v>0.07940913577213012</v>
+        <v>0.0009879547727563729</v>
       </c>
       <c r="T17">
-        <v>0.07940913577213012</v>
+        <v>0.0009879547727563729</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.082465</v>
+        <v>8.835068666666666</v>
       </c>
       <c r="H18">
-        <v>0.247395</v>
+        <v>26.505206</v>
       </c>
       <c r="I18">
-        <v>0.0009547830575007487</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="J18">
-        <v>0.0009547830575007487</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,27 +1559,27 @@
         <v>0.145642</v>
       </c>
       <c r="O18">
-        <v>0.001927133137983325</v>
+        <v>0.001179021181540289</v>
       </c>
       <c r="P18">
-        <v>0.001927133137983326</v>
+        <v>0.001179021181540289</v>
       </c>
       <c r="Q18">
-        <v>0.004003455843333333</v>
+        <v>0.4289190235835555</v>
       </c>
       <c r="R18">
-        <v>0.03603110259</v>
+        <v>3.860271212252</v>
       </c>
       <c r="S18">
-        <v>1.839994069694731E-06</v>
+        <v>0.0001882462416400979</v>
       </c>
       <c r="T18">
-        <v>1.839994069694732E-06</v>
+        <v>0.000188246241640098</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.082465</v>
+        <v>8.835068666666666</v>
       </c>
       <c r="H19">
-        <v>0.247395</v>
+        <v>26.505206</v>
       </c>
       <c r="I19">
-        <v>0.0009547830575007487</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="J19">
-        <v>0.0009547830575007487</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.38698433333333</v>
+        <v>12.57852566666667</v>
       </c>
       <c r="N19">
-        <v>31.160953</v>
+        <v>37.735577</v>
       </c>
       <c r="O19">
-        <v>0.4123213436882281</v>
+        <v>0.3054822412535158</v>
       </c>
       <c r="P19">
-        <v>0.4123213436882282</v>
+        <v>0.3054822412535158</v>
       </c>
       <c r="Q19">
-        <v>0.8565626630483334</v>
+        <v>111.1321379904291</v>
       </c>
       <c r="R19">
-        <v>7.709063967435</v>
+        <v>1000.189241913862</v>
       </c>
       <c r="S19">
-        <v>0.0003936774331994635</v>
+        <v>0.04877425843074472</v>
       </c>
       <c r="T19">
-        <v>0.0003936774331994635</v>
+        <v>0.04877425843074472</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.082465</v>
+        <v>8.835068666666666</v>
       </c>
       <c r="H20">
-        <v>0.247395</v>
+        <v>26.505206</v>
       </c>
       <c r="I20">
-        <v>0.0009547830575007487</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="J20">
-        <v>0.0009547830575007487</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.502148666666667</v>
+        <v>7.359328666666666</v>
       </c>
       <c r="N20">
-        <v>19.506446</v>
+        <v>22.077986</v>
       </c>
       <c r="O20">
-        <v>0.2581090515845861</v>
+        <v>0.1787287536545087</v>
       </c>
       <c r="P20">
-        <v>0.2581090515845861</v>
+        <v>0.1787287536545087</v>
       </c>
       <c r="Q20">
-        <v>0.5361996897966667</v>
+        <v>65.02017411056845</v>
       </c>
       <c r="R20">
-        <v>4.82579720817</v>
+        <v>585.181566995116</v>
       </c>
       <c r="S20">
-        <v>0.0002464381494405495</v>
+        <v>0.02853639669520262</v>
       </c>
       <c r="T20">
-        <v>0.0002464381494405496</v>
+        <v>0.02853639669520262</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.082465</v>
+        <v>8.835068666666666</v>
       </c>
       <c r="H21">
-        <v>0.247395</v>
+        <v>26.505206</v>
       </c>
       <c r="I21">
-        <v>0.0009547830575007487</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="J21">
-        <v>0.0009547830575007487</v>
+        <v>0.1596631549860458</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.253798333333334</v>
+        <v>20.93477566666667</v>
       </c>
       <c r="N21">
-        <v>24.761395</v>
+        <v>62.804327</v>
       </c>
       <c r="O21">
-        <v>0.3276424715892025</v>
+        <v>0.508422239638172</v>
       </c>
       <c r="P21">
-        <v>0.3276424715892025</v>
+        <v>0.5084222396381721</v>
       </c>
       <c r="Q21">
-        <v>0.6806494795583333</v>
+        <v>184.9601805362624</v>
       </c>
       <c r="R21">
-        <v>6.125845316024999</v>
+        <v>1664.641624826362</v>
       </c>
       <c r="S21">
-        <v>0.0003128274807910409</v>
+        <v>0.08117629884570197</v>
       </c>
       <c r="T21">
-        <v>0.0003128274807910409</v>
+        <v>0.08117629884570199</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.5874603333333334</v>
+        <v>0.3169006666666667</v>
       </c>
       <c r="H22">
-        <v>1.762381</v>
+        <v>0.950702</v>
       </c>
       <c r="I22">
-        <v>0.006801639158678337</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="J22">
-        <v>0.006801639158678337</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,33 +1801,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.04854733333333333</v>
+        <v>0.2547863333333333</v>
       </c>
       <c r="N22">
-        <v>0.145642</v>
+        <v>0.764359</v>
       </c>
       <c r="O22">
-        <v>0.001927133137983325</v>
+        <v>0.006187744272263177</v>
       </c>
       <c r="P22">
-        <v>0.001927133137983326</v>
+        <v>0.006187744272263177</v>
       </c>
       <c r="Q22">
-        <v>0.02851963262244445</v>
+        <v>0.08074195889088889</v>
       </c>
       <c r="R22">
-        <v>0.256676693602</v>
+        <v>0.726677630018</v>
       </c>
       <c r="S22">
-        <v>1.310766421529405E-05</v>
+        <v>3.543645645949815E-05</v>
       </c>
       <c r="T22">
-        <v>1.310766421529405E-05</v>
+        <v>3.543645645949815E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1845,51 +1845,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.5874603333333334</v>
+        <v>0.3169006666666667</v>
       </c>
       <c r="H23">
-        <v>1.762381</v>
+        <v>0.950702</v>
       </c>
       <c r="I23">
-        <v>0.006801639158678337</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="J23">
-        <v>0.006801639158678337</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M23">
-        <v>10.38698433333333</v>
+        <v>0.04854733333333333</v>
       </c>
       <c r="N23">
-        <v>31.160953</v>
+        <v>0.145642</v>
       </c>
       <c r="O23">
-        <v>0.4123213436882281</v>
+        <v>0.001179021181540289</v>
       </c>
       <c r="P23">
-        <v>0.4123213436882282</v>
+        <v>0.001179021181540289</v>
       </c>
       <c r="Q23">
-        <v>6.101941278788112</v>
+        <v>0.01538468229822222</v>
       </c>
       <c r="R23">
-        <v>54.91747150909301</v>
+        <v>0.138462140684</v>
       </c>
       <c r="S23">
-        <v>0.002804460997188721</v>
+        <v>6.752110450291327E-06</v>
       </c>
       <c r="T23">
-        <v>0.002804460997188722</v>
+        <v>6.752110450291329E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.5874603333333334</v>
+        <v>0.3169006666666667</v>
       </c>
       <c r="H24">
-        <v>1.762381</v>
+        <v>0.950702</v>
       </c>
       <c r="I24">
-        <v>0.006801639158678337</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="J24">
-        <v>0.006801639158678337</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.502148666666667</v>
+        <v>12.57852566666667</v>
       </c>
       <c r="N24">
-        <v>19.506446</v>
+        <v>37.735577</v>
       </c>
       <c r="O24">
-        <v>0.2581090515845861</v>
+        <v>0.3054822412535158</v>
       </c>
       <c r="P24">
-        <v>0.2581090515845861</v>
+        <v>0.3054822412535158</v>
       </c>
       <c r="Q24">
-        <v>3.819754423102889</v>
+        <v>3.986143169450444</v>
       </c>
       <c r="R24">
-        <v>34.377789807926</v>
+        <v>35.875288525054</v>
       </c>
       <c r="S24">
-        <v>0.001755564632467048</v>
+        <v>0.001749459522730209</v>
       </c>
       <c r="T24">
-        <v>0.001755564632467048</v>
+        <v>0.001749459522730209</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.5874603333333334</v>
+        <v>0.3169006666666667</v>
       </c>
       <c r="H25">
-        <v>1.762381</v>
+        <v>0.950702</v>
       </c>
       <c r="I25">
-        <v>0.006801639158678337</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="J25">
-        <v>0.006801639158678337</v>
+        <v>0.00572687798659417</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.253798333333334</v>
+        <v>7.359328666666666</v>
       </c>
       <c r="N25">
-        <v>24.761395</v>
+        <v>22.077986</v>
       </c>
       <c r="O25">
-        <v>0.3276424715892025</v>
+        <v>0.1787287536545087</v>
       </c>
       <c r="P25">
-        <v>0.3276424715892025</v>
+        <v>0.1787287536545087</v>
       </c>
       <c r="Q25">
-        <v>4.848779120166112</v>
+        <v>2.332176160685778</v>
       </c>
       <c r="R25">
-        <v>43.639012081495</v>
+        <v>20.989585446172</v>
       </c>
       <c r="S25">
-        <v>0.002228505864807274</v>
+        <v>0.001023557764875418</v>
       </c>
       <c r="T25">
-        <v>0.002228505864807274</v>
+        <v>0.001023557764875418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.3169006666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.950702</v>
+      </c>
+      <c r="I26">
+        <v>0.00572687798659417</v>
+      </c>
+      <c r="J26">
+        <v>0.00572687798659417</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>20.93477566666667</v>
+      </c>
+      <c r="N26">
+        <v>62.804327</v>
+      </c>
+      <c r="O26">
+        <v>0.508422239638172</v>
+      </c>
+      <c r="P26">
+        <v>0.5084222396381721</v>
+      </c>
+      <c r="Q26">
+        <v>6.634244365283778</v>
+      </c>
+      <c r="R26">
+        <v>59.708199287554</v>
+      </c>
+      <c r="S26">
+        <v>0.002911672132078753</v>
+      </c>
+      <c r="T26">
+        <v>0.002911672132078754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.411519</v>
+      </c>
+      <c r="H27">
+        <v>7.234557</v>
+      </c>
+      <c r="I27">
+        <v>0.04357982335796155</v>
+      </c>
+      <c r="J27">
+        <v>0.04357982335796154</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.2547863333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.764359</v>
+      </c>
+      <c r="O27">
+        <v>0.006187744272263177</v>
+      </c>
+      <c r="P27">
+        <v>0.006187744272263177</v>
+      </c>
+      <c r="Q27">
+        <v>0.6144220837736666</v>
+      </c>
+      <c r="R27">
+        <v>5.529798753963</v>
+      </c>
+      <c r="S27">
+        <v>0.0002696608023694675</v>
+      </c>
+      <c r="T27">
+        <v>0.0002696608023694675</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.411519</v>
+      </c>
+      <c r="H28">
+        <v>7.234557</v>
+      </c>
+      <c r="I28">
+        <v>0.04357982335796155</v>
+      </c>
+      <c r="J28">
+        <v>0.04357982335796154</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.04854733333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.145642</v>
+      </c>
+      <c r="O28">
+        <v>0.001179021181540289</v>
+      </c>
+      <c r="P28">
+        <v>0.001179021181540289</v>
+      </c>
+      <c r="Q28">
+        <v>0.1170728167326666</v>
+      </c>
+      <c r="R28">
+        <v>1.053655350594</v>
+      </c>
+      <c r="S28">
+        <v>5.138153482682089E-05</v>
+      </c>
+      <c r="T28">
+        <v>5.138153482682089E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.411519</v>
+      </c>
+      <c r="H29">
+        <v>7.234557</v>
+      </c>
+      <c r="I29">
+        <v>0.04357982335796155</v>
+      </c>
+      <c r="J29">
+        <v>0.04357982335796154</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>12.57852566666667</v>
+      </c>
+      <c r="N29">
+        <v>37.735577</v>
+      </c>
+      <c r="O29">
+        <v>0.3054822412535158</v>
+      </c>
+      <c r="P29">
+        <v>0.3054822412535158</v>
+      </c>
+      <c r="Q29">
+        <v>30.33335363715433</v>
+      </c>
+      <c r="R29">
+        <v>273.000182734389</v>
+      </c>
+      <c r="S29">
+        <v>0.01331286211282241</v>
+      </c>
+      <c r="T29">
+        <v>0.01331286211282241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.411519</v>
+      </c>
+      <c r="H30">
+        <v>7.234557</v>
+      </c>
+      <c r="I30">
+        <v>0.04357982335796155</v>
+      </c>
+      <c r="J30">
+        <v>0.04357982335796154</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>7.359328666666666</v>
+      </c>
+      <c r="N30">
+        <v>22.077986</v>
+      </c>
+      <c r="O30">
+        <v>0.1787287536545087</v>
+      </c>
+      <c r="P30">
+        <v>0.1787287536545087</v>
+      </c>
+      <c r="Q30">
+        <v>17.74716090691133</v>
+      </c>
+      <c r="R30">
+        <v>159.724448162202</v>
+      </c>
+      <c r="S30">
+        <v>0.007788967513252112</v>
+      </c>
+      <c r="T30">
+        <v>0.007788967513252112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.411519</v>
+      </c>
+      <c r="H31">
+        <v>7.234557</v>
+      </c>
+      <c r="I31">
+        <v>0.04357982335796155</v>
+      </c>
+      <c r="J31">
+        <v>0.04357982335796154</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>20.93477566666667</v>
+      </c>
+      <c r="N31">
+        <v>62.804327</v>
+      </c>
+      <c r="O31">
+        <v>0.508422239638172</v>
+      </c>
+      <c r="P31">
+        <v>0.5084222396381721</v>
+      </c>
+      <c r="Q31">
+        <v>50.48460928090433</v>
+      </c>
+      <c r="R31">
+        <v>454.361483528139</v>
+      </c>
+      <c r="S31">
+        <v>0.02215695139469073</v>
+      </c>
+      <c r="T31">
+        <v>0.02215695139469073</v>
       </c>
     </row>
   </sheetData>
